--- a/backend/Log.xlsx
+++ b/backend/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1348,6 +1348,406 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1754583810409</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:30.409</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Apply Button Pressed</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>{'taskMode': 'First: Yellow', 'taskOrder': 'Free'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1754583810907</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:30.907</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Initialize Robot Button Pressed</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1754583816966</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:36.966</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>{'taskId': '1', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1754583817031</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:37.031</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>{'taskId': '2', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1754583817100</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:37.100</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>{'taskId': '3', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1754583817165</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:37.165</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>{'taskId': '5', 'assignedTo': 'Robot', 'sliderValue': 10}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1754583817307</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:37.307</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>{'taskId': '6', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1754583817428</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:37.428</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>{'taskId': '8', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1754583817542</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:37.542</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>{'taskId': '9', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1754583817642</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:37.642</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>{'taskId': '10', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1754583817942</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:37.942</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>{'taskId': '12', 'assignedTo': 'Human', 'sliderValue': 2}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1754583818818</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:38.818</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>{'taskId': '14', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1754583819569</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:39.569</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>{'taskId': '15', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1754583820610</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:40.610</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Task Allocation Changed</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>{'taskId': '18', 'assignedTo': 'Human', 'sliderValue': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>P76</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1754583822249</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:42.249</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Start Button Pressed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Robot</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1754583839907</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-08-07 18:23:59.907</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Robot Task Completed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>{'task_name': 'Bridge_triangle_roof', 'urp_name': 'Bridge_triangle_roof'}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/Log.xlsx
+++ b/backend/Log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,65 +451,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1754582637122</v>
+        <v>1760704099363</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-08-07 18:03:57.122</t>
+          <t>2025-10-17 14:28:19.363</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Task Allocation Changed</t>
+          <t>Apply Button Pressed</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'taskId': '9', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+          <t>{'taskMode': 'First: Yellow', 'taskOrder': 'Free'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1754582637176</v>
+        <v>1760704099861</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-08-07 18:03:57.176</t>
+          <t>2025-10-17 14:28:19.861</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Task Allocation Changed</t>
+          <t>Initialize Robot Button Pressed</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'taskId': '10', 'assignedTo': 'Robot', 'sliderValue': 8}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1754582637216</v>
+        <v>1760704105896</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-08-07 18:03:57.216</t>
+          <t>2025-10-17 14:28:25.896</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -519,22 +519,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'taskId': '12', 'assignedTo': 'Human', 'sliderValue': 2}</t>
+          <t>{'taskId': '1', 'assignedTo': 'Human', 'sliderValue': 2}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754582637269</v>
+        <v>1760704105965</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-08-07 18:03:57.269</t>
+          <t>2025-10-17 14:28:25.965</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -544,22 +544,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'taskId': '14', 'assignedTo': 'Robot', 'sliderValue': 8}</t>
+          <t>{'taskId': '3', 'assignedTo': 'Human', 'sliderValue': 2}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1754582637334</v>
+        <v>1760704106037</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-08-07 18:03:57.334</t>
+          <t>2025-10-17 14:28:26.037</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -569,22 +569,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'taskId': '14', 'assignedTo': 'Robot', 'sliderValue': 8}</t>
+          <t>{'taskId': '5', 'assignedTo': 'Robot', 'sliderValue': 8}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1754582637431</v>
+        <v>1760704106141</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-08-07 18:03:57.431</t>
+          <t>2025-10-17 14:28:26.141</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -594,22 +594,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'taskId': '14', 'assignedTo': 'Robot', 'sliderValue': 8}</t>
+          <t>{'taskId': '2', 'assignedTo': 'Robot', 'sliderValue': 7}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1754582637502</v>
+        <v>1760704106247</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-08-07 18:03:57.502</t>
+          <t>2025-10-17 14:28:26.247</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -619,22 +619,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'taskId': '14', 'assignedTo': 'Robot', 'sliderValue': 10}</t>
+          <t>{'taskId': '6', 'assignedTo': 'Human', 'sliderValue': 1}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1754582637590</v>
+        <v>1760704106341</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-08-07 18:03:57.590</t>
+          <t>2025-10-17 14:28:26.341</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -644,22 +644,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'taskId': '14', 'assignedTo': 'Robot', 'sliderValue': 8}</t>
+          <t>{'taskId': '8', 'assignedTo': 'Robot', 'sliderValue': 10}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1754582637892</v>
+        <v>1760704106416</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-08-07 18:03:57.892</t>
+          <t>2025-10-17 14:28:26.416</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -669,22 +669,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'taskId': '14', 'assignedTo': 'Robot', 'sliderValue': 8}</t>
+          <t>{'taskId': '9', 'assignedTo': 'Human', 'sliderValue': 1}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1754582639094</v>
+        <v>1760704108576</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-08-07 18:03:59.094</t>
+          <t>2025-10-17 14:28:28.576</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -694,22 +694,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'taskId': '15', 'assignedTo': 'Human', 'sliderValue': 0}</t>
+          <t>{'taskId': '10', 'assignedTo': 'Robot', 'sliderValue': 8}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1754582639883</v>
+        <v>1760704109589</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-08-07 18:03:59.883</t>
+          <t>2025-10-17 14:28:29.589</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -719,22 +719,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'taskId': '18', 'assignedTo': 'Robot', 'sliderValue': 9}</t>
+          <t>{'taskId': '14', 'assignedTo': 'Human', 'sliderValue': 2}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1754582648220</v>
+        <v>1760704110446</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:08.220</t>
+          <t>2025-10-17 14:28:30.446</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -744,22 +744,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'taskId': '5', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+          <t>{'taskId': '15', 'assignedTo': 'Robot', 'sliderValue': 8}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1754582649316</v>
+        <v>1760704111352</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:09.316</t>
+          <t>2025-10-17 14:28:31.352</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -769,72 +769,72 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'taskId': '8', 'assignedTo': 'Human', 'sliderValue': 0}</t>
+          <t>{'taskId': '18', 'assignedTo': 'Human', 'sliderValue': 1}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1754582650885</v>
+        <v>1761308177651</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:10.885</t>
+          <t>2025-10-24 14:16:17.651</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Task Allocation Changed</t>
+          <t>Apply Button Pressed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'taskId': '10', 'assignedTo': 'Human', 'sliderValue': 0}</t>
+          <t>{'taskMode': 'First: Yellow', 'taskOrder': 'Free'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1754582652024</v>
+        <v>1761308178118</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:12.024</t>
+          <t>2025-10-24 14:16:18.118</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Task Allocation Changed</t>
+          <t>Initialize Robot Button Pressed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'taskId': '14', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1754582653268</v>
+        <v>1761308184215</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:13.268</t>
+          <t>2025-10-24 14:16:24.215</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -844,907 +844,257 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>{'taskId': '18', 'assignedTo': 'Human', 'sliderValue': 1}</t>
+          <t>{'taskId': '1', 'assignedTo': 'Robot', 'sliderValue': 9}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1754582656487</v>
+        <v>1761308319819</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:16.487</t>
+          <t>2025-10-24 14:18:39.819</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Start Button Pressed</t>
+          <t>Task Allocation Changed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'taskId': '2', 'assignedTo': 'Human', 'sliderValue': 0}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1754582657983</v>
+        <v>1761308321588</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:17.983</t>
+          <t>2025-10-24 14:18:41.588</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Next Button Pressed</t>
+          <t>Task Allocation Changed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>{'taskId': 'Task_1'}</t>
+          <t>{'taskId': '3', 'assignedTo': 'Robot', 'sliderValue': 10}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1754582659738</v>
+        <v>1761309018912</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:19.738</t>
+          <t>2025-10-24 14:30:18.912</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Next Button Pressed</t>
+          <t>Apply Button Pressed</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>{'taskId': 'Task_3'}</t>
+          <t>{'taskMode': 'First: Yellow', 'taskOrder': 'Free'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Robot</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1754582673251</v>
+        <v>1761309019423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:33.251</t>
+          <t>2025-10-24 14:30:19.423</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Robot Task Completed</t>
+          <t>Initialize Robot Button Pressed</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>{'task_name': 'Hospital_big_top', 'urp_name': 'Hospital_big_top'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1754582675147</v>
+        <v>1761309071035</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:35.147</t>
+          <t>2025-10-24 14:31:11.035</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Next Button Pressed</t>
+          <t>Apply Button Pressed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>{'taskId': 'Task_4'}</t>
+          <t>{'taskMode': 'First: Yellow', 'taskOrder': 'Free'}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1754582675518</v>
+        <v>1761309077570</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:35.518</t>
+          <t>2025-10-24 14:31:17.570</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Next Button Pressed</t>
+          <t>Initialize Robot Button Pressed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>{'taskId': 'Task_5'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1754582675833</v>
+        <v>1761313667433</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:35.833</t>
+          <t>2025-10-24 15:47:47.433</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Next Button Pressed</t>
+          <t>Apply Button Pressed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>{'taskId': 'Task_6'}</t>
+          <t>{'taskMode': 'First: Yellow', 'taskOrder': 'Free'}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1754582676126</v>
+        <v>1761313667942</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:36.126</t>
+          <t>2025-10-24 15:47:47.942</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Next Button Pressed</t>
+          <t>Initialize Robot Button Pressed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>{'taskId': 'Task_7'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1754582676430</v>
+        <v>1761313709508</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:36.430</t>
+          <t>2025-10-24 15:48:29.508</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Next Button Pressed</t>
+          <t>Task Allocation Changed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>{'taskId': 'Task_8'}</t>
+          <t>{'taskId': '2', 'assignedTo': 'Robot', 'sliderValue': 10}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P75</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1754582676844</v>
+        <v>1761313709586</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-08-07 18:04:36.844</t>
+          <t>2025-10-24 15:48:29.586</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Next Button Pressed</t>
+          <t>Task Allocation Changed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>{'taskId': 'Task_9'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>P75</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1754582677641</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:04:37.641</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Next Button Pressed</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>{'taskId': 'Task_10'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>P75</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1754582678265</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:04:38.265</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Next Button Pressed</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>{'taskId': 'Task_11'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>P75</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1754582679364</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:04:39.364</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Next Button Pressed</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>{'taskId': 'Task_12'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>P75</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1754582679840</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:04:39.840</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Next Button Pressed</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>{'taskId': 'Task_13'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>P75</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1754582680193</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:04:40.193</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Next Button Pressed</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>{'taskId': 'Task_14'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>P75</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1754582680550</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:04:40.550</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Next Button Pressed</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>{'taskId': 'Task_15'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>P75</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1754582680850</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:04:40.850</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Next Button Pressed</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>{'taskId': 'Task_16'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>P75</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1754582681162</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:04:41.162</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Next Button Pressed</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>{'taskId': 'Task_17'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>P75</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1754582681498</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:04:41.498</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Next Button Pressed</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>{'taskId': 'Task_18'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>P75</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1754582681940</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:04:41.940</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Finish Button Pressed</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>{'taskId': 'Task_19'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1754583810409</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:30.409</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Apply Button Pressed</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>{'taskMode': 'First: Yellow', 'taskOrder': 'Free'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1754583810907</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:30.907</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Initialize Robot Button Pressed</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1754583816966</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:36.966</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>{'taskId': '1', 'assignedTo': 'Human', 'sliderValue': 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1754583817031</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:37.031</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>{'taskId': '2', 'assignedTo': 'Human', 'sliderValue': 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1754583817100</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:37.100</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>{'taskId': '3', 'assignedTo': 'Human', 'sliderValue': 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1754583817165</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:37.165</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>{'taskId': '5', 'assignedTo': 'Robot', 'sliderValue': 10}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1754583817307</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:37.307</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>{'taskId': '6', 'assignedTo': 'Human', 'sliderValue': 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1754583817428</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:37.428</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>{'taskId': '8', 'assignedTo': 'Human', 'sliderValue': 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1754583817542</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:37.542</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>{'taskId': '9', 'assignedTo': 'Human', 'sliderValue': 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1754583817642</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:37.642</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>{'taskId': '10', 'assignedTo': 'Human', 'sliderValue': 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1754583817942</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:37.942</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>{'taskId': '12', 'assignedTo': 'Human', 'sliderValue': 2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1754583818818</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:38.818</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>{'taskId': '14', 'assignedTo': 'Human', 'sliderValue': 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1754583819569</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:39.569</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>{'taskId': '15', 'assignedTo': 'Human', 'sliderValue': 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1754583820610</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:40.610</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Task Allocation Changed</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>{'taskId': '18', 'assignedTo': 'Human', 'sliderValue': 0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P76</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1754583822249</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:42.249</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Start Button Pressed</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Robot</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1754583839907</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2025-08-07 18:23:59.907</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Robot Task Completed</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>{'task_name': 'Bridge_triangle_roof', 'urp_name': 'Bridge_triangle_roof'}</t>
+          <t>{'taskId': '1', 'assignedTo': 'Robot', 'sliderValue': 10}</t>
         </is>
       </c>
     </row>
